--- a/src/main/resources/smeta.xlsx
+++ b/src/main/resources/smeta.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27618"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/selyanchenkov/Library/CloudStorage/Dropbox/RUVENTS/Проекты/В работе/Работаем/! Шаблоны/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2113A5D8-D45F-4F45-BBD8-9E74E0847E5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="23260" windowHeight="12580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="504" windowWidth="23256" windowHeight="12576"/>
   </bookViews>
   <sheets>
     <sheet name="Лист 1 - Смета аккредитация" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="36">
   <si>
     <r>
       <rPr>
@@ -67,9 +61,6 @@
     <t>мероприятие:</t>
   </si>
   <si>
-    <t>––</t>
-  </si>
-  <si>
     <t>место проведения(адрес):</t>
   </si>
   <si>
@@ -79,9 +70,6 @@
     <t>дата проведения:</t>
   </si>
   <si>
-    <t>__.__.2024</t>
-  </si>
-  <si>
     <t>время работы:</t>
   </si>
   <si>
@@ -91,9 +79,6 @@
     <t>количество посетителей:</t>
   </si>
   <si>
-    <t>____ чел.</t>
-  </si>
-  <si>
     <t>ОБОРУДОВАНИЕ, ИСПОЛЬЗУЕМОЕ ДЛЯ ОКАЗАНИЯ УСЛУГ</t>
   </si>
   <si>
@@ -119,12 +104,6 @@
   </si>
   <si>
     <t>Сетевое оборудование</t>
-  </si>
-  <si>
-    <t>День 2</t>
-  </si>
-  <si>
-    <t>День 3</t>
   </si>
   <si>
     <t>ИТОГО:</t>
@@ -215,7 +194,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="11">
     <font>
       <sz val="10"/>
@@ -306,7 +285,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="50">
+  <borders count="47">
     <border>
       <left/>
       <right/>
@@ -484,17 +463,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color theme="1"/>
       </left>
@@ -565,7 +533,35 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -580,62 +576,10 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
       <bottom style="double">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="double">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -953,7 +897,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="109">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1006,32 +950,21 @@
       <alignment vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
@@ -1043,38 +976,31 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1089,70 +1015,234 @@
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
@@ -1161,216 +1251,20 @@
       <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -2533,830 +2427,614 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H44"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:H1"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24:XFD27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="20.100000000000001" customHeight="1" zeroHeight="1"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="43.28515625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.28515625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="16.28515625" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="16.28515625" style="1" hidden="1"/>
+    <col min="1" max="1" width="13.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.44140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="43.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.33203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.33203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="16.33203125" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="16.33203125" style="1" hidden="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="29.1" customHeight="1">
-      <c r="A1" s="80" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="81"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="81"/>
-      <c r="H1" s="82"/>
-    </row>
-    <row r="2" spans="1:8" ht="12.95">
-      <c r="A2" s="83">
+      <c r="A1" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="56"/>
+    </row>
+    <row r="2" spans="1:8" ht="13.2">
+      <c r="A2" s="35">
         <v>1</v>
       </c>
-      <c r="B2" s="84" t="s">
+      <c r="B2" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="86"/>
-    </row>
-    <row r="3" spans="1:8" ht="12.95">
-      <c r="A3" s="68"/>
-      <c r="B3" s="60" t="s">
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="65"/>
+    </row>
+    <row r="3" spans="1:8" ht="13.2">
+      <c r="A3" s="57"/>
+      <c r="B3" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="87"/>
-      <c r="D3" s="73" t="s">
+      <c r="C3" s="49"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="49"/>
+    </row>
+    <row r="4" spans="1:8" ht="13.2">
+      <c r="A4" s="49"/>
+      <c r="B4" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="87"/>
-      <c r="F3" s="87"/>
-      <c r="G3" s="87"/>
-      <c r="H3" s="87"/>
-    </row>
-    <row r="4" spans="1:8" ht="12.95">
-      <c r="A4" s="87"/>
-      <c r="B4" s="60" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="87"/>
-      <c r="D4" s="73" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="87"/>
-      <c r="F4" s="87"/>
-      <c r="G4" s="87"/>
-      <c r="H4" s="87"/>
-    </row>
-    <row r="5" spans="1:8" ht="12.95">
+      <c r="C4" s="49"/>
+      <c r="D4" s="58"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="49"/>
+      <c r="H4" s="49"/>
+    </row>
+    <row r="5" spans="1:8" ht="13.2">
       <c r="A5" s="5">
         <v>2</v>
       </c>
-      <c r="B5" s="49" t="s">
+      <c r="B5" s="59" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="60"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="60"/>
+      <c r="F5" s="60"/>
+      <c r="G5" s="60"/>
+      <c r="H5" s="61"/>
+    </row>
+    <row r="6" spans="1:8" ht="13.2">
+      <c r="A6" s="57"/>
+      <c r="B6" s="62" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="88"/>
-      <c r="D5" s="88"/>
-      <c r="E5" s="88"/>
-      <c r="F5" s="88"/>
-      <c r="G5" s="88"/>
-      <c r="H5" s="89"/>
-    </row>
-    <row r="6" spans="1:8" ht="12.95">
-      <c r="A6" s="68"/>
-      <c r="B6" s="60" t="s">
+      <c r="C6" s="49"/>
+      <c r="D6" s="58"/>
+      <c r="E6" s="49"/>
+      <c r="F6" s="49"/>
+      <c r="G6" s="49"/>
+      <c r="H6" s="49"/>
+    </row>
+    <row r="7" spans="1:8" ht="13.2">
+      <c r="A7" s="49"/>
+      <c r="B7" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="87"/>
-      <c r="D6" s="73" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="87"/>
-      <c r="F6" s="87"/>
-      <c r="G6" s="87"/>
-      <c r="H6" s="87"/>
-    </row>
-    <row r="7" spans="1:8" ht="12.95">
-      <c r="A7" s="87"/>
-      <c r="B7" s="60" t="s">
+      <c r="C7" s="49"/>
+      <c r="D7" s="58"/>
+      <c r="E7" s="49"/>
+      <c r="F7" s="49"/>
+      <c r="G7" s="49"/>
+      <c r="H7" s="49"/>
+    </row>
+    <row r="8" spans="1:8" ht="13.2">
+      <c r="A8" s="49"/>
+      <c r="B8" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="87"/>
-      <c r="D7" s="73" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="87"/>
-      <c r="F7" s="87"/>
-      <c r="G7" s="87"/>
-      <c r="H7" s="87"/>
-    </row>
-    <row r="8" spans="1:8" ht="12.95">
-      <c r="A8" s="87"/>
-      <c r="B8" s="60" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="87"/>
-      <c r="D8" s="73" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="87"/>
-      <c r="F8" s="87"/>
-      <c r="G8" s="87"/>
-      <c r="H8" s="87"/>
-    </row>
-    <row r="9" spans="1:8" ht="14.1">
+      <c r="C8" s="49"/>
+      <c r="D8" s="58"/>
+      <c r="E8" s="49"/>
+      <c r="F8" s="49"/>
+      <c r="G8" s="49"/>
+      <c r="H8" s="49"/>
+    </row>
+    <row r="9" spans="1:8" ht="13.2">
       <c r="A9" s="5">
         <v>3</v>
       </c>
-      <c r="B9" s="49" t="s">
+      <c r="B9" s="59" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="60"/>
+      <c r="D9" s="60"/>
+      <c r="E9" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="76" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="60"/>
+      <c r="H9" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="88"/>
-      <c r="D9" s="88"/>
-      <c r="E9" s="34" t="s">
+    </row>
+    <row r="10" spans="1:8" ht="13.2">
+      <c r="A10" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="F9" s="51" t="s">
+      <c r="B10" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="G9" s="88"/>
-      <c r="H9" s="6" t="s">
+      <c r="C10" s="49"/>
+      <c r="D10" s="49"/>
+      <c r="E10" s="31">
+        <v>0</v>
+      </c>
+      <c r="F10" s="50">
+        <v>1800</v>
+      </c>
+      <c r="G10" s="49"/>
+      <c r="H10" s="3">
+        <f t="shared" ref="H10:H13" si="0">E10*F10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="13.2">
+      <c r="A11" s="45"/>
+      <c r="B11" s="48" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" ht="12.95">
-      <c r="A10" s="77" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" s="45" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="87"/>
-      <c r="D10" s="87"/>
-      <c r="E10" s="36">
-        <v>0</v>
-      </c>
-      <c r="F10" s="44">
-        <v>1800</v>
-      </c>
-      <c r="G10" s="87"/>
-      <c r="H10" s="3">
-        <f t="shared" ref="H10:H15" si="0">E10*F10</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="12.95">
-      <c r="A11" s="70"/>
-      <c r="B11" s="45" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="87"/>
-      <c r="D11" s="87"/>
-      <c r="E11" s="36">
-        <v>0</v>
-      </c>
-      <c r="F11" s="44">
+      <c r="C11" s="49"/>
+      <c r="D11" s="49"/>
+      <c r="E11" s="31">
+        <v>0</v>
+      </c>
+      <c r="F11" s="50">
         <v>1400</v>
       </c>
-      <c r="G11" s="87"/>
+      <c r="G11" s="49"/>
       <c r="H11" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="12.95">
-      <c r="A12" s="71"/>
-      <c r="B12" s="45" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" s="87"/>
-      <c r="D12" s="87"/>
-      <c r="E12" s="36">
-        <v>0</v>
-      </c>
-      <c r="F12" s="44">
+    <row r="12" spans="1:8" ht="13.2">
+      <c r="A12" s="46"/>
+      <c r="B12" s="48" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="49"/>
+      <c r="D12" s="49"/>
+      <c r="E12" s="31">
+        <v>0</v>
+      </c>
+      <c r="F12" s="50">
         <v>750</v>
       </c>
-      <c r="G12" s="87"/>
+      <c r="G12" s="49"/>
       <c r="H12" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="14.1" thickBot="1">
-      <c r="A13" s="78"/>
-      <c r="B13" s="42" t="s">
+    <row r="13" spans="1:8" ht="13.8" thickBot="1">
+      <c r="A13" s="47"/>
+      <c r="B13" s="51" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="52"/>
+      <c r="D13" s="52"/>
+      <c r="E13" s="32">
+        <v>0</v>
+      </c>
+      <c r="F13" s="53">
+        <v>1200</v>
+      </c>
+      <c r="G13" s="52"/>
+      <c r="H13" s="22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="13.8" thickTop="1">
+      <c r="A14" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="39"/>
+      <c r="C14" s="39"/>
+      <c r="D14" s="39"/>
+      <c r="E14" s="39"/>
+      <c r="F14" s="39"/>
+      <c r="G14" s="40"/>
+      <c r="H14" s="28">
+        <f>SUM(H10:H13)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="13.2">
+      <c r="A15" s="35">
+        <v>4</v>
+      </c>
+      <c r="B15" s="77" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="78"/>
+      <c r="D15" s="78"/>
+      <c r="E15" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" s="80" t="s">
+        <v>11</v>
+      </c>
+      <c r="G15" s="78"/>
+      <c r="H15" s="37" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" s="17" customFormat="1" ht="13.2">
+      <c r="A16" s="41"/>
+      <c r="B16" s="72" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="90"/>
-      <c r="D13" s="90"/>
-      <c r="E13" s="37">
-        <v>0</v>
-      </c>
-      <c r="F13" s="43">
-        <v>1200</v>
-      </c>
-      <c r="G13" s="90"/>
-      <c r="H13" s="25">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="14.1" thickTop="1">
-      <c r="A14" s="77" t="s">
+      <c r="C16" s="72"/>
+      <c r="D16" s="72"/>
+      <c r="E16" s="34">
+        <v>0</v>
+      </c>
+      <c r="F16" s="71">
+        <v>0</v>
+      </c>
+      <c r="G16" s="71"/>
+      <c r="H16" s="16">
+        <f>E16*F16</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" s="17" customFormat="1" ht="13.2">
+      <c r="A17" s="42"/>
+      <c r="B17" s="72" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="79" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" s="91"/>
-      <c r="D14" s="91"/>
-      <c r="E14" s="26">
-        <v>0</v>
-      </c>
-      <c r="F14" s="44">
-        <v>1800</v>
-      </c>
-      <c r="G14" s="87"/>
-      <c r="H14" s="27">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="12.95">
-      <c r="A15" s="70"/>
-      <c r="B15" s="45" t="s">
+      <c r="C17" s="72"/>
+      <c r="D17" s="73"/>
+      <c r="E17" s="34">
+        <v>0</v>
+      </c>
+      <c r="F17" s="71">
+        <v>0</v>
+      </c>
+      <c r="G17" s="71"/>
+      <c r="H17" s="16">
+        <f>E17*F17</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" s="17" customFormat="1" ht="13.8" thickBot="1">
+      <c r="A18" s="43"/>
+      <c r="B18" s="68" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="69"/>
+      <c r="D18" s="69"/>
+      <c r="E18" s="33">
+        <v>0</v>
+      </c>
+      <c r="F18" s="70">
+        <v>0</v>
+      </c>
+      <c r="G18" s="70"/>
+      <c r="H18" s="26">
+        <f>E18*F18</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="13.2">
+      <c r="A19" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="87"/>
-      <c r="D15" s="87"/>
-      <c r="E15" s="36">
-        <v>0</v>
-      </c>
-      <c r="F15" s="44">
-        <v>1400</v>
-      </c>
-      <c r="G15" s="87"/>
-      <c r="H15" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="12.95">
-      <c r="A16" s="71"/>
-      <c r="B16" s="45" t="s">
-        <v>19</v>
-      </c>
-      <c r="C16" s="87"/>
-      <c r="D16" s="87"/>
-      <c r="E16" s="36">
-        <v>0</v>
-      </c>
-      <c r="F16" s="44">
-        <v>750</v>
-      </c>
-      <c r="G16" s="87"/>
-      <c r="H16" s="3">
-        <f t="shared" ref="H16" si="1">E16*F16</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="14.1" thickBot="1">
-      <c r="A17" s="78"/>
-      <c r="B17" s="42" t="s">
-        <v>20</v>
-      </c>
-      <c r="C17" s="90"/>
-      <c r="D17" s="90"/>
-      <c r="E17" s="37">
-        <v>0</v>
-      </c>
-      <c r="F17" s="43">
-        <v>1200</v>
-      </c>
-      <c r="G17" s="90"/>
-      <c r="H17" s="25">
-        <f>E17*F17</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="14.1" thickTop="1">
-      <c r="A18" s="69" t="s">
-        <v>22</v>
-      </c>
-      <c r="B18" s="40" t="s">
-        <v>17</v>
-      </c>
-      <c r="C18" s="92"/>
-      <c r="D18" s="92"/>
-      <c r="E18" s="22">
-        <v>0</v>
-      </c>
-      <c r="F18" s="44">
-        <v>1800</v>
-      </c>
-      <c r="G18" s="87"/>
-      <c r="H18" s="23">
-        <f>E18*F18</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="12.95">
-      <c r="A19" s="70"/>
-      <c r="B19" s="45" t="s">
+      <c r="B19" s="39"/>
+      <c r="C19" s="39"/>
+      <c r="D19" s="39"/>
+      <c r="E19" s="39"/>
+      <c r="F19" s="39"/>
+      <c r="G19" s="40"/>
+      <c r="H19" s="28">
+        <f>SUM(H16:H18)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" s="13" customFormat="1" ht="39.6">
+      <c r="A20" s="10">
+        <v>5</v>
+      </c>
+      <c r="B20" s="74" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" s="75"/>
+      <c r="D20" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F20" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="G20" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="H20" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" s="14" customFormat="1" ht="13.8" thickBot="1">
+      <c r="A21" s="25"/>
+      <c r="B21" s="51" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" s="52"/>
+      <c r="D21" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="E21" s="32">
+        <v>0</v>
+      </c>
+      <c r="F21" s="32">
+        <v>0</v>
+      </c>
+      <c r="G21" s="32">
+        <v>900</v>
+      </c>
+      <c r="H21" s="22">
+        <f>E21*F21*G21</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" s="15" customFormat="1" ht="14.4" thickTop="1" thickBot="1">
+      <c r="A22" s="92" t="s">
+        <v>13</v>
+      </c>
+      <c r="B22" s="66" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" s="67"/>
+      <c r="D22" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22" s="19">
+        <v>0</v>
+      </c>
+      <c r="F22" s="19">
+        <v>0</v>
+      </c>
+      <c r="G22" s="19">
+        <v>900</v>
+      </c>
+      <c r="H22" s="20">
+        <f t="shared" ref="H22:H23" si="1">E22*F22*G22</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" s="15" customFormat="1" ht="13.8" thickBot="1">
+      <c r="A23" s="93"/>
+      <c r="B23" s="94" t="s">
+        <v>30</v>
+      </c>
+      <c r="C23" s="95"/>
+      <c r="D23" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="E23" s="32">
+        <v>0</v>
+      </c>
+      <c r="F23" s="23">
+        <v>0</v>
+      </c>
+      <c r="G23" s="23">
+        <v>700</v>
+      </c>
+      <c r="H23" s="24">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="13.8" thickTop="1">
+      <c r="A24" s="91" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="87"/>
-      <c r="D19" s="87"/>
-      <c r="E19" s="36">
-        <v>0</v>
-      </c>
-      <c r="F19" s="44">
-        <v>1400</v>
-      </c>
-      <c r="G19" s="87"/>
-      <c r="H19" s="3">
-        <f t="shared" ref="H19:H20" si="2">E19*F19</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="12.95">
-      <c r="A20" s="71"/>
-      <c r="B20" s="45" t="s">
-        <v>19</v>
-      </c>
-      <c r="C20" s="87"/>
-      <c r="D20" s="87"/>
-      <c r="E20" s="36">
-        <v>0</v>
-      </c>
-      <c r="F20" s="44">
-        <v>750</v>
-      </c>
-      <c r="G20" s="87"/>
-      <c r="H20" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="14.1" thickBot="1">
-      <c r="A21" s="72"/>
-      <c r="B21" s="53" t="s">
-        <v>20</v>
-      </c>
-      <c r="C21" s="93"/>
-      <c r="D21" s="93"/>
-      <c r="E21" s="35">
-        <v>0</v>
-      </c>
-      <c r="F21" s="50">
-        <v>1200</v>
-      </c>
-      <c r="G21" s="93"/>
-      <c r="H21" s="7">
-        <f t="shared" ref="H21" si="3">E21*F21</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="12.95">
-      <c r="A22" s="47" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22" s="94"/>
-      <c r="C22" s="94"/>
-      <c r="D22" s="94"/>
-      <c r="E22" s="94"/>
-      <c r="F22" s="94"/>
-      <c r="G22" s="95"/>
-      <c r="H22" s="33">
-        <f>SUM(H10:H21)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="14.1">
-      <c r="A23" s="83">
-        <v>4</v>
-      </c>
-      <c r="B23" s="96" t="s">
-        <v>24</v>
-      </c>
-      <c r="C23" s="97"/>
-      <c r="D23" s="97"/>
-      <c r="E23" s="98" t="s">
-        <v>13</v>
-      </c>
-      <c r="F23" s="99" t="s">
-        <v>14</v>
-      </c>
-      <c r="G23" s="97"/>
-      <c r="H23" s="100" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" s="19" customFormat="1" ht="12.95">
-      <c r="A24" s="74"/>
-      <c r="B24" s="65" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" s="65"/>
-      <c r="D24" s="65"/>
-      <c r="E24" s="39">
-        <v>0</v>
-      </c>
-      <c r="F24" s="64">
-        <v>0</v>
-      </c>
-      <c r="G24" s="64"/>
-      <c r="H24" s="18">
-        <f>E24*F24</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" s="19" customFormat="1" ht="12.95">
-      <c r="A25" s="75"/>
-      <c r="B25" s="65" t="s">
-        <v>26</v>
-      </c>
-      <c r="C25" s="65"/>
-      <c r="D25" s="66"/>
-      <c r="E25" s="39">
-        <v>0</v>
-      </c>
-      <c r="F25" s="64">
-        <v>0</v>
-      </c>
-      <c r="G25" s="64"/>
-      <c r="H25" s="18">
-        <f>E25*F25</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" s="19" customFormat="1" ht="14.1" thickBot="1">
-      <c r="A26" s="76"/>
-      <c r="B26" s="61" t="s">
-        <v>27</v>
-      </c>
-      <c r="C26" s="62"/>
-      <c r="D26" s="62"/>
-      <c r="E26" s="38">
-        <v>0</v>
-      </c>
-      <c r="F26" s="63">
-        <v>0</v>
-      </c>
-      <c r="G26" s="63"/>
-      <c r="H26" s="31">
+      <c r="B24" s="67"/>
+      <c r="C24" s="67"/>
+      <c r="D24" s="67"/>
+      <c r="E24" s="67"/>
+      <c r="F24" s="67"/>
+      <c r="G24" s="67"/>
+      <c r="H24" s="8">
+        <f>SUM(H21:XFD23)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="13.2">
+      <c r="A25" s="5">
+        <v>6</v>
+      </c>
+      <c r="B25" s="59" t="s">
+        <v>31</v>
+      </c>
+      <c r="C25" s="60"/>
+      <c r="D25" s="60"/>
+      <c r="E25" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="F25" s="76" t="s">
+        <v>11</v>
+      </c>
+      <c r="G25" s="60"/>
+      <c r="H25" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="13.8" thickBot="1">
+      <c r="A26" s="9"/>
+      <c r="B26" s="90" t="s">
+        <v>32</v>
+      </c>
+      <c r="C26" s="85"/>
+      <c r="D26" s="85"/>
+      <c r="E26" s="30">
+        <v>0</v>
+      </c>
+      <c r="F26" s="84">
+        <v>3000</v>
+      </c>
+      <c r="G26" s="85"/>
+      <c r="H26" s="7">
         <f>E26*F26</f>
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="12.95">
-      <c r="A27" s="47" t="s">
-        <v>23</v>
-      </c>
-      <c r="B27" s="94"/>
-      <c r="C27" s="94"/>
-      <c r="D27" s="94"/>
-      <c r="E27" s="94"/>
-      <c r="F27" s="94"/>
-      <c r="G27" s="95"/>
-      <c r="H27" s="33">
-        <f>SUM(H24:H26)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" s="13" customFormat="1" ht="42">
-      <c r="A28" s="10">
-        <v>5</v>
-      </c>
-      <c r="B28" s="67" t="s">
-        <v>28</v>
-      </c>
-      <c r="C28" s="101"/>
-      <c r="D28" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="E28" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="F28" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="G28" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="H28" s="12" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" s="14" customFormat="1" ht="15" thickBot="1">
-      <c r="A29" s="30"/>
-      <c r="B29" s="42" t="s">
-        <v>32</v>
-      </c>
-      <c r="C29" s="90"/>
-      <c r="D29" s="24" t="s">
+    <row r="27" spans="1:8" ht="13.2">
+      <c r="A27" s="91" t="s">
+        <v>18</v>
+      </c>
+      <c r="B27" s="67"/>
+      <c r="C27" s="67"/>
+      <c r="D27" s="67"/>
+      <c r="E27" s="67"/>
+      <c r="F27" s="67"/>
+      <c r="G27" s="67"/>
+      <c r="H27" s="8">
+        <f>SUM(H26)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="13.2">
+      <c r="A28" s="4">
+        <v>7</v>
+      </c>
+      <c r="B28" s="87" t="s">
         <v>33</v>
       </c>
-      <c r="E29" s="37">
-        <v>0</v>
-      </c>
-      <c r="F29" s="37">
-        <v>0</v>
-      </c>
-      <c r="G29" s="37">
-        <v>900</v>
-      </c>
-      <c r="H29" s="25">
-        <f>E29*F29*G29</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" s="15" customFormat="1" ht="15.95" thickTop="1" thickBot="1">
-      <c r="A30" s="58" t="s">
-        <v>16</v>
-      </c>
-      <c r="B30" s="40" t="s">
+      <c r="C28" s="88"/>
+      <c r="D28" s="88"/>
+      <c r="E28" s="88"/>
+      <c r="F28" s="88"/>
+      <c r="G28" s="88"/>
+      <c r="H28" s="89"/>
+    </row>
+    <row r="29" spans="1:8" ht="13.2">
+      <c r="A29" s="81" t="s">
+        <v>18</v>
+      </c>
+      <c r="B29" s="82"/>
+      <c r="C29" s="82"/>
+      <c r="D29" s="82"/>
+      <c r="E29" s="82"/>
+      <c r="F29" s="82"/>
+      <c r="G29" s="83"/>
+      <c r="H29" s="27">
+        <f>SUM(H27,H24,H19,H14)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="13.2">
+      <c r="A30" s="86" t="s">
         <v>34</v>
       </c>
-      <c r="C30" s="92"/>
-      <c r="D30" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="E30" s="22">
-        <v>0</v>
-      </c>
-      <c r="F30" s="22">
-        <v>0</v>
-      </c>
-      <c r="G30" s="22">
-        <v>900</v>
-      </c>
-      <c r="H30" s="23">
-        <f t="shared" ref="H30:H31" si="4">E30*F30*G30</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" s="15" customFormat="1" ht="15" thickBot="1">
-      <c r="A31" s="59"/>
-      <c r="B31" s="41" t="s">
+      <c r="B30" s="64"/>
+      <c r="C30" s="64"/>
+      <c r="D30" s="64"/>
+      <c r="E30" s="64"/>
+      <c r="F30" s="64"/>
+      <c r="G30" s="64"/>
+      <c r="H30" s="65"/>
+    </row>
+    <row r="31" spans="1:8" ht="103.35" customHeight="1">
+      <c r="A31" s="79" t="s">
         <v>35</v>
       </c>
-      <c r="C31" s="102"/>
-      <c r="D31" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="E31" s="37">
-        <v>0</v>
-      </c>
-      <c r="F31" s="28">
-        <v>0</v>
-      </c>
-      <c r="G31" s="28">
-        <v>700</v>
-      </c>
-      <c r="H31" s="29">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" s="15" customFormat="1" ht="15.95" thickTop="1" thickBot="1">
-      <c r="A32" s="55" t="s">
-        <v>21</v>
-      </c>
-      <c r="B32" s="40" t="s">
-        <v>34</v>
-      </c>
-      <c r="C32" s="92"/>
-      <c r="D32" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="E32" s="22">
-        <v>0</v>
-      </c>
-      <c r="F32" s="22">
-        <v>0</v>
-      </c>
-      <c r="G32" s="22">
-        <v>900</v>
-      </c>
-      <c r="H32" s="23">
-        <f t="shared" ref="H32:H33" si="5">E32*F32*G32</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" s="15" customFormat="1" ht="15" thickBot="1">
-      <c r="A33" s="59"/>
-      <c r="B33" s="41" t="s">
-        <v>35</v>
-      </c>
-      <c r="C33" s="102"/>
-      <c r="D33" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="E33" s="37">
-        <v>0</v>
-      </c>
-      <c r="F33" s="28">
-        <v>0</v>
-      </c>
-      <c r="G33" s="28">
-        <v>700</v>
-      </c>
-      <c r="H33" s="29">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" s="15" customFormat="1" ht="15.95" thickTop="1" thickBot="1">
-      <c r="A34" s="55" t="s">
-        <v>22</v>
-      </c>
-      <c r="B34" s="40" t="s">
-        <v>34</v>
-      </c>
-      <c r="C34" s="92"/>
-      <c r="D34" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="E34" s="22">
-        <v>0</v>
-      </c>
-      <c r="F34" s="22">
-        <v>0</v>
-      </c>
-      <c r="G34" s="22">
-        <v>900</v>
-      </c>
-      <c r="H34" s="23">
-        <f t="shared" ref="H34" si="6">E34*F34*G34</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" s="15" customFormat="1" ht="15" thickBot="1">
-      <c r="A35" s="56"/>
-      <c r="B35" s="57" t="s">
-        <v>35</v>
-      </c>
-      <c r="C35" s="103"/>
-      <c r="D35" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="E35" s="35">
-        <v>0</v>
-      </c>
-      <c r="F35" s="16">
-        <v>0</v>
-      </c>
-      <c r="G35" s="16">
-        <v>700</v>
-      </c>
-      <c r="H35" s="17">
-        <f t="shared" ref="H35" si="7">E35*F35*G35</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" ht="12.95">
-      <c r="A36" s="54" t="s">
-        <v>23</v>
-      </c>
-      <c r="B36" s="92"/>
-      <c r="C36" s="92"/>
-      <c r="D36" s="92"/>
-      <c r="E36" s="92"/>
-      <c r="F36" s="92"/>
-      <c r="G36" s="92"/>
-      <c r="H36" s="8">
-        <f>SUM(H29:XFD35)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" ht="14.1">
-      <c r="A37" s="5">
-        <v>6</v>
-      </c>
-      <c r="B37" s="49" t="s">
-        <v>36</v>
-      </c>
-      <c r="C37" s="88"/>
-      <c r="D37" s="88"/>
-      <c r="E37" s="34" t="s">
-        <v>13</v>
-      </c>
-      <c r="F37" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="G37" s="88"/>
-      <c r="H37" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" ht="14.1" thickBot="1">
-      <c r="A38" s="9"/>
-      <c r="B38" s="53" t="s">
-        <v>37</v>
-      </c>
-      <c r="C38" s="93"/>
-      <c r="D38" s="93"/>
-      <c r="E38" s="35">
-        <v>0</v>
-      </c>
-      <c r="F38" s="50">
-        <v>3000</v>
-      </c>
-      <c r="G38" s="93"/>
-      <c r="H38" s="7">
-        <f>E38*F38</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" ht="12.95">
-      <c r="A39" s="54" t="s">
-        <v>23</v>
-      </c>
-      <c r="B39" s="92"/>
-      <c r="C39" s="92"/>
-      <c r="D39" s="92"/>
-      <c r="E39" s="92"/>
-      <c r="F39" s="92"/>
-      <c r="G39" s="92"/>
-      <c r="H39" s="8">
-        <f>SUM(H38)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" ht="12.95">
-      <c r="A40" s="4">
-        <v>7</v>
-      </c>
-      <c r="B40" s="52" t="s">
-        <v>38</v>
-      </c>
-      <c r="C40" s="104"/>
-      <c r="D40" s="104"/>
-      <c r="E40" s="104"/>
-      <c r="F40" s="104"/>
-      <c r="G40" s="104"/>
-      <c r="H40" s="105"/>
-    </row>
-    <row r="41" spans="1:8" ht="12.95">
-      <c r="A41" s="48" t="s">
-        <v>23</v>
-      </c>
-      <c r="B41" s="106"/>
-      <c r="C41" s="106"/>
-      <c r="D41" s="106"/>
-      <c r="E41" s="106"/>
-      <c r="F41" s="106"/>
-      <c r="G41" s="107"/>
-      <c r="H41" s="32">
-        <f>SUM(H39,H36,H27,H22)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" ht="12.95">
-      <c r="A42" s="108" t="s">
-        <v>39</v>
-      </c>
-      <c r="B42" s="85"/>
-      <c r="C42" s="85"/>
-      <c r="D42" s="85"/>
-      <c r="E42" s="85"/>
-      <c r="F42" s="85"/>
-      <c r="G42" s="85"/>
-      <c r="H42" s="86"/>
-    </row>
-    <row r="43" spans="1:8" ht="103.35" customHeight="1">
-      <c r="A43" s="46" t="s">
-        <v>40</v>
-      </c>
-      <c r="B43" s="46"/>
-      <c r="C43" s="46"/>
-      <c r="D43" s="46"/>
-      <c r="E43" s="46"/>
-      <c r="F43" s="46"/>
-      <c r="G43" s="46"/>
-      <c r="H43" s="46"/>
-    </row>
-    <row r="44" spans="1:8" ht="92.1" hidden="1" customHeight="1">
-      <c r="A44" s="2"/>
-      <c r="B44" s="2"/>
-      <c r="C44" s="2"/>
-      <c r="D44" s="2"/>
-      <c r="E44" s="2"/>
-      <c r="F44" s="2"/>
-      <c r="G44" s="2"/>
-      <c r="H44" s="2"/>
-    </row>
+      <c r="B31" s="79"/>
+      <c r="C31" s="79"/>
+      <c r="D31" s="79"/>
+      <c r="E31" s="79"/>
+      <c r="F31" s="79"/>
+      <c r="G31" s="79"/>
+      <c r="H31" s="79"/>
+    </row>
+    <row r="32" spans="1:8" ht="92.1" hidden="1" customHeight="1">
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+    </row>
+    <row r="33" ht="20.100000000000001" customHeight="1"/>
+    <row r="34" ht="20.100000000000001" customHeight="1"/>
+    <row r="35" ht="20.100000000000001" customHeight="1"/>
+    <row r="36" ht="20.100000000000001" customHeight="1"/>
+    <row r="37" ht="20.100000000000001" customHeight="1"/>
+    <row r="38" ht="20.100000000000001" customHeight="1"/>
+    <row r="39" ht="20.100000000000001" customHeight="1"/>
+    <row r="40" ht="20.100000000000001" customHeight="1"/>
+    <row r="41" ht="20.100000000000001" customHeight="1"/>
+    <row r="42" ht="20.100000000000001" customHeight="1"/>
+    <row r="43" ht="20.100000000000001" customHeight="1"/>
+    <row r="44" ht="20.100000000000001" customHeight="1"/>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" selectLockedCells="1" sort="0" autoFilter="0" pivotTables="0"/>
-  <mergeCells count="76">
+  <mergeCells count="52">
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
     <mergeCell ref="B9:D9"/>
     <mergeCell ref="F9:G9"/>
-    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="A31:H31"/>
+    <mergeCell ref="A14:G14"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="A29:G29"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="A30:H30"/>
+    <mergeCell ref="B28:H28"/>
+    <mergeCell ref="B26:D26"/>
     <mergeCell ref="A27:G27"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="A24:A26"/>
-    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="A24:G24"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="D8:H8"/>
+    <mergeCell ref="B5:H5"/>
+    <mergeCell ref="D3:H3"/>
+    <mergeCell ref="D4:H4"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="A19:G19"/>
+    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A10:A13"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="F11:G11"/>
@@ -3364,68 +3042,10 @@
     <mergeCell ref="F12:G12"/>
     <mergeCell ref="B13:D13"/>
     <mergeCell ref="F13:G13"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="A18:A21"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="D8:H8"/>
-    <mergeCell ref="B5:H5"/>
-    <mergeCell ref="D3:H3"/>
-    <mergeCell ref="D4:H4"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="F16:G16"/>
     <mergeCell ref="B10:D10"/>
     <mergeCell ref="F10:G10"/>
-    <mergeCell ref="A43:H43"/>
-    <mergeCell ref="A22:G22"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="A41:G41"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="A42:H42"/>
-    <mergeCell ref="B40:H40"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="A39:G39"/>
-    <mergeCell ref="A36:G36"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.27777800000000002" footer="0.27777800000000002"/>

--- a/src/main/resources/smeta.xlsx
+++ b/src/main/resources/smeta.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="504" windowWidth="23256" windowHeight="12576"/>
+    <workbookView xWindow="0" yWindow="516" windowWidth="23256" windowHeight="12576"/>
   </bookViews>
   <sheets>
     <sheet name="Лист 1 - Смета аккредитация" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="22">
   <si>
     <r>
       <rPr>
@@ -73,9 +73,6 @@
     <t>время работы:</t>
   </si>
   <si>
-    <t>__:00-__:00</t>
-  </si>
-  <si>
     <t>количество посетителей:</t>
   </si>
   <si>
@@ -91,34 +88,10 @@
     <t>Сумма (руб.)</t>
   </si>
   <si>
-    <t>День 1</t>
-  </si>
-  <si>
-    <t>Ноутбук + ПО</t>
-  </si>
-  <si>
-    <t>Принтер для печати наклеек</t>
-  </si>
-  <si>
-    <t>Кабельная коммутация</t>
-  </si>
-  <si>
-    <t>Сетевое оборудование</t>
-  </si>
-  <si>
     <t>ИТОГО:</t>
   </si>
   <si>
     <t>РАСХОДНЫЕ МАТЕРИАЛЫ</t>
-  </si>
-  <si>
-    <t>Производство печатного бейджа (105х140 мм., 4+4, 350гр.,75 мкм., матовый)</t>
-  </si>
-  <si>
-    <t>Производство ленты для бейджа (16 мм., однотонная, 2 карабина-люкс)</t>
-  </si>
-  <si>
-    <t>Печать персонифицированных наклеек (90х38 мм.)</t>
   </si>
   <si>
     <t>ПРОЧИЕ УСЛУГИ</t>
@@ -133,22 +106,7 @@
     <t>Кол-во представителей Исполнителя</t>
   </si>
   <si>
-    <t>Услуга монтаж/демонтаж+ настройка оборудования</t>
-  </si>
-  <si>
-    <t>–</t>
-  </si>
-  <si>
-    <t>Услуга администратора</t>
-  </si>
-  <si>
-    <t>Услуга оператора аккредитации</t>
-  </si>
-  <si>
     <t>ЛОГИСТИКА</t>
-  </si>
-  <si>
-    <t>Логистика оборудования и расходных материалов</t>
   </si>
   <si>
     <t>ИТОГО</t>
@@ -195,7 +153,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -236,22 +194,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Helvetica Neue"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="8"/>
       <name val="Helvetica Neue"/>
       <family val="2"/>
@@ -285,7 +227,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="47">
+  <borders count="34">
     <border>
       <left/>
       <right/>
@@ -387,21 +329,6 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top/>
       <bottom style="thin">
         <color indexed="64"/>
@@ -464,16 +391,141 @@
     </border>
     <border>
       <left style="thin">
-        <color theme="1"/>
-      </left>
-      <right style="thin">
-        <color theme="1"/>
+        <color indexed="11"/>
+      </left>
+      <right style="thin">
+        <color indexed="12"/>
       </right>
       <top style="thin">
-        <color theme="1"/>
+        <color indexed="12"/>
       </top>
-      <bottom style="thin">
-        <color theme="1"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top style="thin">
+        <color indexed="12"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="12"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="11"/>
+      </left>
+      <right style="thin">
+        <color indexed="12"/>
+      </right>
+      <top style="thin">
+        <color indexed="12"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="12"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="12"/>
+      </left>
+      <right style="thin">
+        <color indexed="12"/>
+      </right>
+      <top style="thin">
+        <color indexed="12"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="12"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="12"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="12"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="12"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="12"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="11"/>
+      </left>
+      <right style="thin">
+        <color indexed="12"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="12"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="12"/>
+      </left>
+      <right style="thin">
+        <color indexed="12"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="12"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="12"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="12"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="12"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="12"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="12"/>
       </bottom>
       <diagonal/>
     </border>
@@ -481,23 +533,42 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color indexed="12"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="12"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="12"/>
+      </right>
+      <top style="thin">
+        <color indexed="12"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="12"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="11"/>
+      </left>
+      <right style="thin">
+        <color indexed="12"/>
+      </right>
+      <top style="thin">
+        <color indexed="12"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="11"/>
+      <left style="thin">
+        <color indexed="12"/>
       </left>
       <right style="thin">
         <color indexed="12"/>
@@ -509,165 +580,90 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color indexed="12"/>
+      </left>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
       <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
+        <color indexed="12"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
+        <color indexed="12"/>
+      </left>
+      <right style="thin">
+        <color indexed="12"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color indexed="12"/>
       </top>
-      <bottom style="double">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="double">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="double">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="double">
-        <color indexed="64"/>
+      <bottom style="thin">
+        <color indexed="12"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="12"/>
+      </left>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top style="thin">
+        <color indexed="12"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="double">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="1"/>
-      </left>
-      <right style="thin">
-        <color theme="1"/>
-      </right>
-      <top style="thin">
+      <bottom style="thin">
+        <color indexed="12"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="11"/>
+      </left>
+      <right style="thin">
+        <color indexed="12"/>
+      </right>
+      <top style="medium">
         <color theme="1"/>
       </top>
-      <bottom style="medium">
+      <bottom style="thin">
+        <color indexed="12"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="12"/>
+      </left>
+      <right style="thin">
+        <color indexed="12"/>
+      </right>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="12"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="12"/>
+      </left>
+      <right style="thin">
         <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="12"/>
       </bottom>
       <diagonal/>
     </border>
@@ -676,215 +672,8 @@
       <right style="thin">
         <color indexed="11"/>
       </right>
-      <top style="thin">
-        <color indexed="12"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="12"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="11"/>
-      </left>
-      <right style="thin">
-        <color indexed="12"/>
-      </right>
-      <top style="thin">
-        <color indexed="12"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="12"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="12"/>
-      </left>
-      <right style="thin">
-        <color indexed="12"/>
-      </right>
-      <top style="thin">
-        <color indexed="12"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="12"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="12"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="12"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="12"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="11"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="12"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="11"/>
-      </left>
-      <right style="thin">
-        <color indexed="12"/>
-      </right>
       <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="12"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="12"/>
-      </left>
-      <right style="thin">
-        <color indexed="12"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="12"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="12"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="12"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="12"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="12"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="12"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="12"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="12"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="12"/>
-      </right>
-      <top style="thin">
-        <color indexed="12"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="12"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="11"/>
-      </left>
-      <right style="thin">
-        <color indexed="12"/>
-      </right>
-      <top style="thin">
-        <color indexed="12"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="12"/>
-      </left>
-      <right style="thin">
-        <color indexed="12"/>
-      </right>
-      <top style="thin">
-        <color indexed="12"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="12"/>
-      </left>
-      <right style="thin">
-        <color indexed="11"/>
-      </right>
-      <top style="thin">
-        <color indexed="12"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="12"/>
-      </left>
-      <right style="thin">
-        <color indexed="12"/>
-      </right>
-      <top style="thin">
-        <color indexed="12"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="12"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="12"/>
-      </left>
-      <right style="thin">
-        <color indexed="11"/>
-      </right>
-      <top style="thin">
-        <color indexed="12"/>
+        <color theme="1"/>
       </top>
       <bottom style="thin">
         <color indexed="12"/>
@@ -897,7 +686,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -909,228 +698,190 @@
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+      <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
       <protection locked="0"/>
@@ -1139,132 +890,8 @@
       <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -2430,8 +2057,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H44"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24:XFD27"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16:XFD16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="20.100000000000001" customHeight="1" zeroHeight="1"/>
@@ -2448,537 +2075,323 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="29.1" customHeight="1">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="56"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="46"/>
     </row>
     <row r="2" spans="1:8" ht="13.2">
-      <c r="A2" s="35">
+      <c r="A2" s="14">
         <v>1</v>
       </c>
-      <c r="B2" s="63" t="s">
+      <c r="B2" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64"/>
-      <c r="H2" s="65"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="38"/>
     </row>
     <row r="3" spans="1:8" ht="13.2">
-      <c r="A3" s="57"/>
-      <c r="B3" s="62" t="s">
+      <c r="A3" s="47"/>
+      <c r="B3" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="49"/>
-      <c r="D3" s="58"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="49"/>
-      <c r="H3" s="49"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="48"/>
     </row>
     <row r="4" spans="1:8" ht="13.2">
-      <c r="A4" s="49"/>
-      <c r="B4" s="62" t="s">
+      <c r="A4" s="48"/>
+      <c r="B4" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="49"/>
-      <c r="D4" s="58"/>
-      <c r="E4" s="49"/>
-      <c r="F4" s="49"/>
-      <c r="G4" s="49"/>
-      <c r="H4" s="49"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="48"/>
     </row>
     <row r="5" spans="1:8" ht="13.2">
-      <c r="A5" s="5">
+      <c r="A5" s="15">
         <v>2</v>
       </c>
-      <c r="B5" s="59" t="s">
+      <c r="B5" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="60"/>
-      <c r="D5" s="60"/>
-      <c r="E5" s="60"/>
-      <c r="F5" s="60"/>
-      <c r="G5" s="60"/>
-      <c r="H5" s="61"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="50"/>
     </row>
     <row r="6" spans="1:8" ht="13.2">
-      <c r="A6" s="57"/>
-      <c r="B6" s="62" t="s">
+      <c r="A6" s="47"/>
+      <c r="B6" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="49"/>
-      <c r="D6" s="58"/>
-      <c r="E6" s="49"/>
-      <c r="F6" s="49"/>
-      <c r="G6" s="49"/>
-      <c r="H6" s="49"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="49"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="48"/>
+      <c r="H6" s="48"/>
     </row>
     <row r="7" spans="1:8" ht="13.2">
-      <c r="A7" s="49"/>
-      <c r="B7" s="62" t="s">
+      <c r="A7" s="48"/>
+      <c r="B7" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="49"/>
-      <c r="D7" s="58"/>
-      <c r="E7" s="49"/>
-      <c r="F7" s="49"/>
-      <c r="G7" s="49"/>
-      <c r="H7" s="49"/>
+      <c r="C7" s="48"/>
+      <c r="D7" s="49"/>
+      <c r="E7" s="48"/>
+      <c r="F7" s="48"/>
+      <c r="G7" s="48"/>
+      <c r="H7" s="48"/>
     </row>
     <row r="8" spans="1:8" ht="13.2">
-      <c r="A8" s="49"/>
-      <c r="B8" s="62" t="s">
+      <c r="A8" s="48"/>
+      <c r="B8" s="51" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="48"/>
+      <c r="D8" s="49"/>
+      <c r="E8" s="48"/>
+      <c r="F8" s="48"/>
+      <c r="G8" s="48"/>
+      <c r="H8" s="48"/>
+    </row>
+    <row r="9" spans="1:8" ht="13.8" thickBot="1">
+      <c r="A9" s="15">
+        <v>3</v>
+      </c>
+      <c r="B9" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="49"/>
-      <c r="D8" s="58"/>
-      <c r="E8" s="49"/>
-      <c r="F8" s="49"/>
-      <c r="G8" s="49"/>
-      <c r="H8" s="49"/>
-    </row>
-    <row r="9" spans="1:8" ht="13.2">
-      <c r="A9" s="5">
-        <v>3</v>
-      </c>
-      <c r="B9" s="59" t="s">
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="60"/>
-      <c r="D9" s="60"/>
-      <c r="E9" s="29" t="s">
+      <c r="F9" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="F9" s="76" t="s">
+      <c r="G9" s="19"/>
+      <c r="H9" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="G9" s="60"/>
-      <c r="H9" s="6" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="13.2">
-      <c r="A10" s="44" t="s">
+      <c r="A10" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="30"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="31"/>
+      <c r="H10" s="13" t="e">
+        <f>SUM(#REF!)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="13.8" thickBot="1">
+      <c r="A11" s="14">
+        <v>4</v>
+      </c>
+      <c r="B11" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="48" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="49"/>
-      <c r="D10" s="49"/>
-      <c r="E10" s="31">
-        <v>0</v>
-      </c>
-      <c r="F10" s="50">
-        <v>1800</v>
-      </c>
-      <c r="G10" s="49"/>
-      <c r="H10" s="3">
-        <f t="shared" ref="H10:H13" si="0">E10*F10</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="13.2">
-      <c r="A11" s="45"/>
-      <c r="B11" s="48" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" s="49"/>
-      <c r="D11" s="49"/>
-      <c r="E11" s="31">
-        <v>0</v>
-      </c>
-      <c r="F11" s="50">
-        <v>1400</v>
-      </c>
-      <c r="G11" s="49"/>
-      <c r="H11" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11" s="22"/>
+      <c r="H11" s="12" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="13.2">
-      <c r="A12" s="46"/>
-      <c r="B12" s="48" t="s">
+      <c r="A12" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="26"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="9" t="e">
+        <f>SUM(#REF!)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" s="7" customFormat="1" ht="39.6">
+      <c r="A13" s="16">
+        <v>5</v>
+      </c>
+      <c r="B13" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="24"/>
+      <c r="D13" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="49"/>
-      <c r="D12" s="49"/>
-      <c r="E12" s="31">
-        <v>0</v>
-      </c>
-      <c r="F12" s="50">
-        <v>750</v>
-      </c>
-      <c r="G12" s="49"/>
-      <c r="H12" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="F13" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="13.8" thickBot="1">
-      <c r="A13" s="47"/>
-      <c r="B13" s="51" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" s="52"/>
-      <c r="D13" s="52"/>
-      <c r="E13" s="32">
-        <v>0</v>
-      </c>
-      <c r="F13" s="53">
-        <v>1200</v>
-      </c>
-      <c r="G13" s="52"/>
-      <c r="H13" s="22">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="13.8" thickTop="1">
-      <c r="A14" s="38" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" s="39"/>
-      <c r="C14" s="39"/>
-      <c r="D14" s="39"/>
-      <c r="E14" s="39"/>
-      <c r="F14" s="39"/>
-      <c r="G14" s="40"/>
-      <c r="H14" s="28">
-        <f>SUM(H10:H13)</f>
-        <v>0</v>
+    <row r="14" spans="1:8" ht="13.2">
+      <c r="A14" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="43"/>
+      <c r="C14" s="43"/>
+      <c r="D14" s="43"/>
+      <c r="E14" s="43"/>
+      <c r="F14" s="43"/>
+      <c r="G14" s="43"/>
+      <c r="H14" s="4" t="e">
+        <f>SUM(#REF!)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="13.2">
-      <c r="A15" s="35">
-        <v>4</v>
-      </c>
-      <c r="B15" s="77" t="s">
+      <c r="A15" s="15">
+        <v>6</v>
+      </c>
+      <c r="B15" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="G15" s="19"/>
+      <c r="H15" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="13.2">
+      <c r="A16" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="43"/>
+      <c r="C16" s="43"/>
+      <c r="D16" s="43"/>
+      <c r="E16" s="43"/>
+      <c r="F16" s="43"/>
+      <c r="G16" s="43"/>
+      <c r="H16" s="4" t="e">
+        <f>SUM(#REF!)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="13.2">
+      <c r="A17" s="17">
+        <v>7</v>
+      </c>
+      <c r="B17" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="78"/>
-      <c r="D15" s="78"/>
-      <c r="E15" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="F15" s="80" t="s">
-        <v>11</v>
-      </c>
-      <c r="G15" s="78"/>
-      <c r="H15" s="37" t="s">
+      <c r="C17" s="40"/>
+      <c r="D17" s="40"/>
+      <c r="E17" s="40"/>
+      <c r="F17" s="40"/>
+      <c r="G17" s="40"/>
+      <c r="H17" s="41"/>
+    </row>
+    <row r="18" spans="1:8" ht="13.2">
+      <c r="A18" s="33" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" s="17" customFormat="1" ht="13.2">
-      <c r="A16" s="41"/>
-      <c r="B16" s="72" t="s">
-        <v>20</v>
-      </c>
-      <c r="C16" s="72"/>
-      <c r="D16" s="72"/>
-      <c r="E16" s="34">
-        <v>0</v>
-      </c>
-      <c r="F16" s="71">
-        <v>0</v>
-      </c>
-      <c r="G16" s="71"/>
-      <c r="H16" s="16">
-        <f>E16*F16</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" s="17" customFormat="1" ht="13.2">
-      <c r="A17" s="42"/>
-      <c r="B17" s="72" t="s">
-        <v>21</v>
-      </c>
-      <c r="C17" s="72"/>
-      <c r="D17" s="73"/>
-      <c r="E17" s="34">
-        <v>0</v>
-      </c>
-      <c r="F17" s="71">
-        <v>0</v>
-      </c>
-      <c r="G17" s="71"/>
-      <c r="H17" s="16">
-        <f>E17*F17</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" s="17" customFormat="1" ht="13.8" thickBot="1">
-      <c r="A18" s="43"/>
-      <c r="B18" s="68" t="s">
-        <v>22</v>
-      </c>
-      <c r="C18" s="69"/>
-      <c r="D18" s="69"/>
-      <c r="E18" s="33">
-        <v>0</v>
-      </c>
-      <c r="F18" s="70">
-        <v>0</v>
-      </c>
-      <c r="G18" s="70"/>
-      <c r="H18" s="26">
-        <f>E18*F18</f>
-        <v>0</v>
+      <c r="B18" s="34"/>
+      <c r="C18" s="34"/>
+      <c r="D18" s="34"/>
+      <c r="E18" s="34"/>
+      <c r="F18" s="34"/>
+      <c r="G18" s="35"/>
+      <c r="H18" s="8" t="e">
+        <f>SUM(H16,H14,H12,H10)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="13.2">
-      <c r="A19" s="38" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19" s="39"/>
-      <c r="C19" s="39"/>
-      <c r="D19" s="39"/>
-      <c r="E19" s="39"/>
-      <c r="F19" s="39"/>
-      <c r="G19" s="40"/>
-      <c r="H19" s="28">
-        <f>SUM(H16:H18)</f>
-        <v>0</v>
-      </c>
+      <c r="A19" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" s="37"/>
+      <c r="C19" s="37"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="37"/>
+      <c r="F19" s="37"/>
+      <c r="G19" s="37"/>
+      <c r="H19" s="38"/>
     </row>
-    <row r="20" spans="1:8" s="13" customFormat="1" ht="39.6">
-      <c r="A20" s="10">
-        <v>5</v>
-      </c>
-      <c r="B20" s="74" t="s">
-        <v>23</v>
-      </c>
-      <c r="C20" s="75"/>
-      <c r="D20" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="E20" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="F20" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="G20" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="H20" s="12" t="s">
-        <v>12</v>
-      </c>
+    <row r="20" spans="1:8" ht="103.35" customHeight="1">
+      <c r="A20" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" s="28"/>
+      <c r="C20" s="28"/>
+      <c r="D20" s="28"/>
+      <c r="E20" s="28"/>
+      <c r="F20" s="28"/>
+      <c r="G20" s="28"/>
+      <c r="H20" s="28"/>
     </row>
-    <row r="21" spans="1:8" s="14" customFormat="1" ht="13.8" thickBot="1">
-      <c r="A21" s="25"/>
-      <c r="B21" s="51" t="s">
-        <v>27</v>
-      </c>
-      <c r="C21" s="52"/>
-      <c r="D21" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="E21" s="32">
-        <v>0</v>
-      </c>
-      <c r="F21" s="32">
-        <v>0</v>
-      </c>
-      <c r="G21" s="32">
-        <v>900</v>
-      </c>
-      <c r="H21" s="22">
-        <f>E21*F21*G21</f>
-        <v>0</v>
-      </c>
+    <row r="21" spans="1:8" ht="92.1" hidden="1" customHeight="1">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
     </row>
-    <row r="22" spans="1:8" s="15" customFormat="1" ht="14.4" thickTop="1" thickBot="1">
-      <c r="A22" s="92" t="s">
-        <v>13</v>
-      </c>
-      <c r="B22" s="66" t="s">
-        <v>29</v>
-      </c>
-      <c r="C22" s="67"/>
-      <c r="D22" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="E22" s="19">
-        <v>0</v>
-      </c>
-      <c r="F22" s="19">
-        <v>0</v>
-      </c>
-      <c r="G22" s="19">
-        <v>900</v>
-      </c>
-      <c r="H22" s="20">
-        <f t="shared" ref="H22:H23" si="1">E22*F22*G22</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" s="15" customFormat="1" ht="13.8" thickBot="1">
-      <c r="A23" s="93"/>
-      <c r="B23" s="94" t="s">
-        <v>30</v>
-      </c>
-      <c r="C23" s="95"/>
-      <c r="D23" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="E23" s="32">
-        <v>0</v>
-      </c>
-      <c r="F23" s="23">
-        <v>0</v>
-      </c>
-      <c r="G23" s="23">
-        <v>700</v>
-      </c>
-      <c r="H23" s="24">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="13.8" thickTop="1">
-      <c r="A24" s="91" t="s">
-        <v>18</v>
-      </c>
-      <c r="B24" s="67"/>
-      <c r="C24" s="67"/>
-      <c r="D24" s="67"/>
-      <c r="E24" s="67"/>
-      <c r="F24" s="67"/>
-      <c r="G24" s="67"/>
-      <c r="H24" s="8">
-        <f>SUM(H21:XFD23)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="13.2">
-      <c r="A25" s="5">
-        <v>6</v>
-      </c>
-      <c r="B25" s="59" t="s">
-        <v>31</v>
-      </c>
-      <c r="C25" s="60"/>
-      <c r="D25" s="60"/>
-      <c r="E25" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="F25" s="76" t="s">
-        <v>11</v>
-      </c>
-      <c r="G25" s="60"/>
-      <c r="H25" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="13.8" thickBot="1">
-      <c r="A26" s="9"/>
-      <c r="B26" s="90" t="s">
-        <v>32</v>
-      </c>
-      <c r="C26" s="85"/>
-      <c r="D26" s="85"/>
-      <c r="E26" s="30">
-        <v>0</v>
-      </c>
-      <c r="F26" s="84">
-        <v>3000</v>
-      </c>
-      <c r="G26" s="85"/>
-      <c r="H26" s="7">
-        <f>E26*F26</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="13.2">
-      <c r="A27" s="91" t="s">
-        <v>18</v>
-      </c>
-      <c r="B27" s="67"/>
-      <c r="C27" s="67"/>
-      <c r="D27" s="67"/>
-      <c r="E27" s="67"/>
-      <c r="F27" s="67"/>
-      <c r="G27" s="67"/>
-      <c r="H27" s="8">
-        <f>SUM(H26)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="13.2">
-      <c r="A28" s="4">
-        <v>7</v>
-      </c>
-      <c r="B28" s="87" t="s">
-        <v>33</v>
-      </c>
-      <c r="C28" s="88"/>
-      <c r="D28" s="88"/>
-      <c r="E28" s="88"/>
-      <c r="F28" s="88"/>
-      <c r="G28" s="88"/>
-      <c r="H28" s="89"/>
-    </row>
-    <row r="29" spans="1:8" ht="13.2">
-      <c r="A29" s="81" t="s">
-        <v>18</v>
-      </c>
-      <c r="B29" s="82"/>
-      <c r="C29" s="82"/>
-      <c r="D29" s="82"/>
-      <c r="E29" s="82"/>
-      <c r="F29" s="82"/>
-      <c r="G29" s="83"/>
-      <c r="H29" s="27">
-        <f>SUM(H27,H24,H19,H14)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="13.2">
-      <c r="A30" s="86" t="s">
-        <v>34</v>
-      </c>
-      <c r="B30" s="64"/>
-      <c r="C30" s="64"/>
-      <c r="D30" s="64"/>
-      <c r="E30" s="64"/>
-      <c r="F30" s="64"/>
-      <c r="G30" s="64"/>
-      <c r="H30" s="65"/>
-    </row>
-    <row r="31" spans="1:8" ht="103.35" customHeight="1">
-      <c r="A31" s="79" t="s">
-        <v>35</v>
-      </c>
-      <c r="B31" s="79"/>
-      <c r="C31" s="79"/>
-      <c r="D31" s="79"/>
-      <c r="E31" s="79"/>
-      <c r="F31" s="79"/>
-      <c r="G31" s="79"/>
-      <c r="H31" s="79"/>
-    </row>
-    <row r="32" spans="1:8" ht="92.1" hidden="1" customHeight="1">
-      <c r="A32" s="2"/>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
-    </row>
+    <row r="22" spans="1:8" ht="20.100000000000001" customHeight="1"/>
+    <row r="23" spans="1:8" ht="20.100000000000001" customHeight="1"/>
+    <row r="24" spans="1:8" ht="20.100000000000001" customHeight="1"/>
+    <row r="25" spans="1:8" ht="20.100000000000001" customHeight="1"/>
+    <row r="26" spans="1:8" ht="20.100000000000001" customHeight="1"/>
+    <row r="27" spans="1:8" ht="20.100000000000001" customHeight="1"/>
+    <row r="28" spans="1:8" ht="20.100000000000001" customHeight="1"/>
+    <row r="29" spans="1:8" ht="20.100000000000001" customHeight="1"/>
+    <row r="30" spans="1:8" ht="20.100000000000001" customHeight="1"/>
+    <row r="31" spans="1:8" ht="20.100000000000001" customHeight="1"/>
+    <row r="32" spans="1:8" ht="20.100000000000001" customHeight="1"/>
     <row r="33" ht="20.100000000000001" customHeight="1"/>
     <row r="34" ht="20.100000000000001" customHeight="1"/>
     <row r="35" ht="20.100000000000001" customHeight="1"/>
@@ -2993,31 +2406,7 @@
     <row r="44" ht="20.100000000000001" customHeight="1"/>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" selectLockedCells="1" sort="0" autoFilter="0" pivotTables="0"/>
-  <mergeCells count="52">
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="A31:H31"/>
-    <mergeCell ref="A14:G14"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="A29:G29"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="A30:H30"/>
-    <mergeCell ref="B28:H28"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="A27:G27"/>
-    <mergeCell ref="A24:G24"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
+  <mergeCells count="30">
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="A6:A8"/>
@@ -3033,21 +2422,23 @@
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="B2:H2"/>
     <mergeCell ref="B8:C8"/>
-    <mergeCell ref="A19:G19"/>
-    <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="A20:H20"/>
+    <mergeCell ref="A10:G10"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="A18:G18"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="A19:H19"/>
+    <mergeCell ref="B17:H17"/>
+    <mergeCell ref="A16:G16"/>
+    <mergeCell ref="A14:G14"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="F9:G9"/>
     <mergeCell ref="B11:D11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="A12:G12"/>
   </mergeCells>
-  <phoneticPr fontId="9" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.27777800000000002" footer="0.27777800000000002"/>
   <pageSetup scale="72" orientation="portrait" r:id="rId1"/>
   <headerFooter>

--- a/src/main/resources/smeta.xlsx
+++ b/src/main/resources/smeta.xlsx
@@ -754,6 +754,30 @@
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
@@ -762,18 +786,94 @@
       <alignment vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
@@ -792,106 +892,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -2058,7 +2058,7 @@
   <dimension ref="A1:H44"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:XFD16"/>
+      <selection activeCell="A21" sqref="A21:XFD44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="20.100000000000001" customHeight="1" zeroHeight="1"/>
@@ -2075,135 +2075,135 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="29.1" customHeight="1">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="46"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="20"/>
     </row>
     <row r="2" spans="1:8" ht="13.2">
       <c r="A2" s="14">
         <v>1</v>
       </c>
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="38"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="30"/>
     </row>
     <row r="3" spans="1:8" ht="13.2">
-      <c r="A3" s="47"/>
-      <c r="B3" s="51" t="s">
+      <c r="A3" s="21"/>
+      <c r="B3" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="48"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="48"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
     </row>
     <row r="4" spans="1:8" ht="13.2">
-      <c r="A4" s="48"/>
-      <c r="B4" s="51" t="s">
+      <c r="A4" s="22"/>
+      <c r="B4" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="48"/>
-      <c r="D4" s="49"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="48"/>
-      <c r="G4" s="48"/>
-      <c r="H4" s="48"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
     </row>
     <row r="5" spans="1:8" ht="13.2">
       <c r="A5" s="15">
         <v>2</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="50"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="26"/>
     </row>
     <row r="6" spans="1:8" ht="13.2">
-      <c r="A6" s="47"/>
-      <c r="B6" s="51" t="s">
+      <c r="A6" s="21"/>
+      <c r="B6" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="48"/>
-      <c r="D6" s="49"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="48"/>
-      <c r="G6" s="48"/>
-      <c r="H6" s="48"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="22"/>
     </row>
     <row r="7" spans="1:8" ht="13.2">
-      <c r="A7" s="48"/>
-      <c r="B7" s="51" t="s">
+      <c r="A7" s="22"/>
+      <c r="B7" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="48"/>
-      <c r="D7" s="49"/>
-      <c r="E7" s="48"/>
-      <c r="F7" s="48"/>
-      <c r="G7" s="48"/>
-      <c r="H7" s="48"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
     </row>
     <row r="8" spans="1:8" ht="13.2">
-      <c r="A8" s="48"/>
-      <c r="B8" s="51" t="s">
+      <c r="A8" s="22"/>
+      <c r="B8" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="48"/>
-      <c r="D8" s="49"/>
-      <c r="E8" s="48"/>
-      <c r="F8" s="48"/>
-      <c r="G8" s="48"/>
-      <c r="H8" s="48"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="22"/>
     </row>
     <row r="9" spans="1:8" ht="13.8" thickBot="1">
       <c r="A9" s="15">
         <v>3</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
       <c r="E9" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="20" t="s">
+      <c r="F9" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="G9" s="19"/>
+      <c r="G9" s="25"/>
       <c r="H9" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="13.2">
-      <c r="A10" s="29" t="s">
+      <c r="A10" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="30"/>
-      <c r="C10" s="30"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="31"/>
+      <c r="B10" s="33"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="34"/>
       <c r="H10" s="13" t="e">
         <f>SUM(#REF!)</f>
         <v>#REF!</v>
@@ -2213,32 +2213,32 @@
       <c r="A11" s="14">
         <v>4</v>
       </c>
-      <c r="B11" s="21" t="s">
+      <c r="B11" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="22"/>
-      <c r="D11" s="22"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="36"/>
       <c r="E11" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="F11" s="32" t="s">
+      <c r="F11" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="G11" s="22"/>
+      <c r="G11" s="36"/>
       <c r="H11" s="12" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="13.2">
-      <c r="A12" s="25" t="s">
+      <c r="A12" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="26"/>
-      <c r="C12" s="26"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="27"/>
+      <c r="B12" s="51"/>
+      <c r="C12" s="51"/>
+      <c r="D12" s="51"/>
+      <c r="E12" s="51"/>
+      <c r="F12" s="51"/>
+      <c r="G12" s="52"/>
       <c r="H12" s="9" t="e">
         <f>SUM(#REF!)</f>
         <v>#REF!</v>
@@ -2248,10 +2248,10 @@
       <c r="A13" s="16">
         <v>5</v>
       </c>
-      <c r="B13" s="23" t="s">
+      <c r="B13" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="24"/>
+      <c r="C13" s="49"/>
       <c r="D13" s="5" t="s">
         <v>15</v>
       </c>
@@ -2269,15 +2269,15 @@
       </c>
     </row>
     <row r="14" spans="1:8" ht="13.2">
-      <c r="A14" s="42" t="s">
+      <c r="A14" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="43"/>
-      <c r="C14" s="43"/>
-      <c r="D14" s="43"/>
-      <c r="E14" s="43"/>
-      <c r="F14" s="43"/>
-      <c r="G14" s="43"/>
+      <c r="B14" s="46"/>
+      <c r="C14" s="46"/>
+      <c r="D14" s="46"/>
+      <c r="E14" s="46"/>
+      <c r="F14" s="46"/>
+      <c r="G14" s="46"/>
       <c r="H14" s="4" t="e">
         <f>SUM(#REF!)</f>
         <v>#REF!</v>
@@ -2287,32 +2287,32 @@
       <c r="A15" s="15">
         <v>6</v>
       </c>
-      <c r="B15" s="18" t="s">
+      <c r="B15" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="19"/>
-      <c r="D15" s="19"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="25"/>
       <c r="E15" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="F15" s="20" t="s">
+      <c r="F15" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="G15" s="19"/>
+      <c r="G15" s="25"/>
       <c r="H15" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="13.2">
-      <c r="A16" s="42" t="s">
+      <c r="A16" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="43"/>
-      <c r="C16" s="43"/>
-      <c r="D16" s="43"/>
-      <c r="E16" s="43"/>
-      <c r="F16" s="43"/>
-      <c r="G16" s="43"/>
+      <c r="B16" s="46"/>
+      <c r="C16" s="46"/>
+      <c r="D16" s="46"/>
+      <c r="E16" s="46"/>
+      <c r="F16" s="46"/>
+      <c r="G16" s="46"/>
       <c r="H16" s="4" t="e">
         <f>SUM(#REF!)</f>
         <v>#REF!</v>
@@ -2322,54 +2322,54 @@
       <c r="A17" s="17">
         <v>7</v>
       </c>
-      <c r="B17" s="39" t="s">
+      <c r="B17" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="40"/>
-      <c r="D17" s="40"/>
-      <c r="E17" s="40"/>
-      <c r="F17" s="40"/>
-      <c r="G17" s="40"/>
-      <c r="H17" s="41"/>
+      <c r="C17" s="43"/>
+      <c r="D17" s="43"/>
+      <c r="E17" s="43"/>
+      <c r="F17" s="43"/>
+      <c r="G17" s="43"/>
+      <c r="H17" s="44"/>
     </row>
     <row r="18" spans="1:8" ht="13.2">
-      <c r="A18" s="33" t="s">
+      <c r="A18" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="34"/>
-      <c r="C18" s="34"/>
-      <c r="D18" s="34"/>
-      <c r="E18" s="34"/>
-      <c r="F18" s="34"/>
-      <c r="G18" s="35"/>
+      <c r="B18" s="38"/>
+      <c r="C18" s="38"/>
+      <c r="D18" s="38"/>
+      <c r="E18" s="38"/>
+      <c r="F18" s="38"/>
+      <c r="G18" s="39"/>
       <c r="H18" s="8" t="e">
         <f>SUM(H16,H14,H12,H10)</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="13.2">
-      <c r="A19" s="36" t="s">
+      <c r="A19" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="37"/>
-      <c r="C19" s="37"/>
-      <c r="D19" s="37"/>
-      <c r="E19" s="37"/>
-      <c r="F19" s="37"/>
-      <c r="G19" s="37"/>
-      <c r="H19" s="38"/>
+      <c r="B19" s="29"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="29"/>
+      <c r="E19" s="29"/>
+      <c r="F19" s="29"/>
+      <c r="G19" s="29"/>
+      <c r="H19" s="30"/>
     </row>
     <row r="20" spans="1:8" ht="103.35" customHeight="1">
-      <c r="A20" s="28" t="s">
+      <c r="A20" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="28"/>
-      <c r="C20" s="28"/>
-      <c r="D20" s="28"/>
-      <c r="E20" s="28"/>
-      <c r="F20" s="28"/>
-      <c r="G20" s="28"/>
-      <c r="H20" s="28"/>
+      <c r="B20" s="31"/>
+      <c r="C20" s="31"/>
+      <c r="D20" s="31"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="31"/>
+      <c r="G20" s="31"/>
+      <c r="H20" s="31"/>
     </row>
     <row r="21" spans="1:8" ht="92.1" hidden="1" customHeight="1">
       <c r="A21" s="2"/>
@@ -2381,32 +2381,47 @@
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
     </row>
-    <row r="22" spans="1:8" ht="20.100000000000001" customHeight="1"/>
-    <row r="23" spans="1:8" ht="20.100000000000001" customHeight="1"/>
-    <row r="24" spans="1:8" ht="20.100000000000001" customHeight="1"/>
-    <row r="25" spans="1:8" ht="20.100000000000001" customHeight="1"/>
-    <row r="26" spans="1:8" ht="20.100000000000001" customHeight="1"/>
-    <row r="27" spans="1:8" ht="20.100000000000001" customHeight="1"/>
-    <row r="28" spans="1:8" ht="20.100000000000001" customHeight="1"/>
-    <row r="29" spans="1:8" ht="20.100000000000001" customHeight="1"/>
-    <row r="30" spans="1:8" ht="20.100000000000001" customHeight="1"/>
-    <row r="31" spans="1:8" ht="20.100000000000001" customHeight="1"/>
-    <row r="32" spans="1:8" ht="20.100000000000001" customHeight="1"/>
-    <row r="33" ht="20.100000000000001" customHeight="1"/>
-    <row r="34" ht="20.100000000000001" customHeight="1"/>
-    <row r="35" ht="20.100000000000001" customHeight="1"/>
-    <row r="36" ht="20.100000000000001" customHeight="1"/>
-    <row r="37" ht="20.100000000000001" customHeight="1"/>
-    <row r="38" ht="20.100000000000001" customHeight="1"/>
-    <row r="39" ht="20.100000000000001" customHeight="1"/>
-    <row r="40" ht="20.100000000000001" customHeight="1"/>
-    <row r="41" ht="20.100000000000001" customHeight="1"/>
-    <row r="42" ht="20.100000000000001" customHeight="1"/>
-    <row r="43" ht="20.100000000000001" customHeight="1"/>
-    <row r="44" ht="20.100000000000001" customHeight="1"/>
+    <row r="22" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1"/>
+    <row r="23" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1"/>
+    <row r="24" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1"/>
+    <row r="25" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1"/>
+    <row r="26" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1"/>
+    <row r="27" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1"/>
+    <row r="28" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1"/>
+    <row r="29" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1"/>
+    <row r="30" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1"/>
+    <row r="31" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1"/>
+    <row r="32" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1"/>
+    <row r="33" ht="20.100000000000001" hidden="1" customHeight="1"/>
+    <row r="34" ht="20.100000000000001" hidden="1" customHeight="1"/>
+    <row r="35" ht="20.100000000000001" hidden="1" customHeight="1"/>
+    <row r="36" ht="20.100000000000001" hidden="1" customHeight="1"/>
+    <row r="37" ht="20.100000000000001" hidden="1" customHeight="1"/>
+    <row r="38" ht="20.100000000000001" hidden="1" customHeight="1"/>
+    <row r="39" ht="20.100000000000001" hidden="1" customHeight="1"/>
+    <row r="40" ht="20.100000000000001" hidden="1" customHeight="1"/>
+    <row r="41" ht="20.100000000000001" hidden="1" customHeight="1"/>
+    <row r="42" ht="20.100000000000001" hidden="1" customHeight="1"/>
+    <row r="43" ht="20.100000000000001" hidden="1" customHeight="1"/>
+    <row r="44" ht="20.100000000000001" hidden="1" customHeight="1"/>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" selectLockedCells="1" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="30">
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="A12:G12"/>
+    <mergeCell ref="A20:H20"/>
+    <mergeCell ref="A10:G10"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="A18:G18"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="A19:H19"/>
+    <mergeCell ref="B17:H17"/>
+    <mergeCell ref="A16:G16"/>
+    <mergeCell ref="A14:G14"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="A6:A8"/>
@@ -2422,21 +2437,6 @@
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="B2:H2"/>
     <mergeCell ref="B8:C8"/>
-    <mergeCell ref="A20:H20"/>
-    <mergeCell ref="A10:G10"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="A18:G18"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="A19:H19"/>
-    <mergeCell ref="B17:H17"/>
-    <mergeCell ref="A16:G16"/>
-    <mergeCell ref="A14:G14"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="A12:G12"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.27777800000000002" footer="0.27777800000000002"/>
